--- a/biology/Botanique/Convolvulus_cneorum/Convolvulus_cneorum.xlsx
+++ b/biology/Botanique/Convolvulus_cneorum/Convolvulus_cneorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Convolvulus cneorum est une espèce de sous-arbrisseaux de la famille des Convolvulacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrique du Nord et Balkans.
 </t>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Floraison au printemps et en été.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fleurs blanc et rose. Feuillage persistant, argenté.
 Port : plante rampante s'étalant sur plusieurs dizaines de centimètres.
@@ -605,7 +623,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sol drainé, sec, même calcaire, exposé au Soleil.
 </t>
@@ -636,7 +656,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante ornementale. La floraison est relativement courte mais spectaculaire. Le feuillage argenté apporte une note de couleur dans le jardin, Convolvulus cneorum est résistant à la sécheresse et à la chaleur. Des arrosages occasionnels lui sont bénéfiques mais il faut avoir la main légère sous peine de faire apparaitre des problèmes cryptogamiques qui lui sont fatals. La plante prend alors un aspect terne et finit par sécher complètement. La taille n'est pas indispensable mais possible si elle est légère et effectuée juste après la floraison.
 </t>
@@ -667,12 +689,14 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (25 mai 2019)[1] et World Checklist of Selected Plant Families (WCSP)  (25 mai 2019)[2] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (25 mai 2019) et World Checklist of Selected Plant Families (WCSP)  (25 mai 2019) :
 variété Convolvulus cneorum var. cneorum
 variété Convolvulus cneorum var. latifolius Rchb. (1858)
-Selon Catalogue of Life                                   (25 mai 2019)[3] :
+Selon Catalogue of Life                                   (25 mai 2019) :
 variété Convolvulus cneorum var. latifolius</t>
         </is>
       </c>
